--- a/df_list_20250106.xlsx
+++ b/df_list_20250106.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="139">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -247,16 +247,203 @@
   </si>
   <si>
     <t>대가 척정3지구 급경사지 붕괴위험지역 정비사업 신기술・특허공법 선정위원회 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>『울진 왕피천공원 리노베이션 기본 및 실시설계용역』 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>충남도로관리사업소</t>
+  </si>
+  <si>
+    <t>노화~평촌 지방도 확포장공사 외 1개 사업 공법 선정 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>음봉일반산업단지 진입도로 개설공사 공법 선정 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
+  </si>
+  <si>
+    <t>제안서 평가결과 공고(2025년 부산광역시의회 홈페이지 SW 유지관리 용역)</t>
+  </si>
+  <si>
+    <t>A023</t>
+  </si>
+  <si>
+    <t>울산광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=1</t>
+  </si>
+  <si>
+    <t>용역 기술제안서 제출안내 및 입찰공고(긴급) - 울산 회야공공하수처리시설 단순관리대행 용역</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=3</t>
+  </si>
+  <si>
+    <t>2025년 세계유산 남한산성 활용사업 제안서 평가위원 인력풀(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.chungnam.go.kr/cnportal/province/province/list.do?menuNo=500487&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A062</t>
+  </si>
+  <si>
+    <t>경기도_여주시</t>
+  </si>
+  <si>
+    <t>https://www.yeoju.go.kr/www/selectEminwonList.do?key=413&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년 마을공동체 주민제안 공모사업 공고</t>
+  </si>
+  <si>
+    <t>2025년도 제1회 도로관리심의회 개최 알림</t>
+  </si>
+  <si>
+    <t>A084</t>
+  </si>
+  <si>
+    <t>강원도_양양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.yangyang.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
+  </si>
+  <si>
+    <t>양양군 재해영향평가심의위원회 위원후보 등록 공고</t>
+  </si>
+  <si>
+    <t>A090</t>
+  </si>
+  <si>
+    <t>강원도_홍천군</t>
+  </si>
+  <si>
+    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년 홍천군 스마트 라이프 통합 용역분석 제안서 평가위원(후보자) ...</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>청주일반산업단지 아름다운거리 조성사업 기본(공공디자인) 및 실시설계 용역 제안서 평가위원 후보자 모집 공고</t>
+  </si>
+  <si>
+    <t>오창과학산업단지 아름다운거리 조성사업 기본(공공디자인) 및 실시설계용역 제안서 평가위원 후보자 모집 공고</t>
+  </si>
+  <si>
+    <t>2025 청주독서대전 운영 대행 용역 제안서 평가위원(후보자) 공개 모집</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>「2025 청주독서대전 행사 환경연출 및 운영 대행 용역」 입찰 및 제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=7</t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>충청도_증평군</t>
+  </si>
+  <si>
+    <t>http://eminwon.jp.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04,06&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>2025년 증평군 좌구산휴양랜드 산림교육 위탁운영 사업제안서 평가위원 모...</t>
+  </si>
+  <si>
+    <t>A125</t>
+  </si>
+  <si>
+    <t>전라도_익산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
+  </si>
+  <si>
+    <t>「익산시 블로그 및 SNS 운영 용역」 제안서 평가위원(후보자) 모집 공...</t>
+  </si>
+  <si>
+    <t>[2025년도 익산시 블로그 및 SNS 운영] 제안서 제출 안내 공고(협...</t>
+  </si>
+  <si>
+    <t>A129</t>
+  </si>
+  <si>
+    <t>전라도_무주군</t>
+  </si>
+  <si>
+    <t>https://eminwon.muju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;subCheck=Y</t>
+  </si>
+  <si>
+    <t>무주 태권브이랜드 로봇 격납고 설계 및 제작？설치 제안서 공모 공고</t>
+  </si>
+  <si>
+    <t>A131</t>
+  </si>
+  <si>
+    <t>전라도_순창군</t>
+  </si>
+  <si>
+    <t>http://eminwon.sunchang.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
+  </si>
+  <si>
+    <t>「경천·양지천 수변 종합개발사업」음악분수 및 바닥분수 신기술·특허공법 선정을 위한 공법제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=2</t>
+  </si>
+  <si>
+    <t>2025년 1분기 마산합포구 도로관리심의회 도로점용(굴착) 사업계획서 제출에 따른 공고</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=4</t>
+  </si>
+  <si>
+    <t>2025년 고성군 생태관광(독수리) 체험프로그램 운영 용역 제안서 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.goseong.go.kr/board/list.goseong?boardId=BBS_0000015&amp;menuCd=DOM_000000103001014000&amp;contentsSid=29&amp;cpath=&amp;startPage=2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -278,6 +465,17 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -319,6 +517,18 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,50 +1171,886 @@
         <v>45663.58331018518</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F64" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F65" s="8">
+        <v>45664.03341435185</v>
+      </c>
+    </row>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
     <row r="68" ht="15.75" customHeight="1"/>
@@ -1941,9 +2987,55 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C22"/>
+    <hyperlink r:id="rId2" ref="C23"/>
+    <hyperlink r:id="rId3" ref="C24"/>
+    <hyperlink r:id="rId4" ref="C25"/>
+    <hyperlink r:id="rId5" ref="C26"/>
+    <hyperlink r:id="rId6" ref="C27"/>
+    <hyperlink r:id="rId7" ref="C28"/>
+    <hyperlink r:id="rId8" ref="C29"/>
+    <hyperlink r:id="rId9" location="page=3" ref="C30"/>
+    <hyperlink r:id="rId10" ref="C31"/>
+    <hyperlink r:id="rId11" ref="C32"/>
+    <hyperlink r:id="rId12" ref="C33"/>
+    <hyperlink r:id="rId13" ref="C34"/>
+    <hyperlink r:id="rId14" ref="C35"/>
+    <hyperlink r:id="rId15" ref="C36"/>
+    <hyperlink r:id="rId16" ref="C37"/>
+    <hyperlink r:id="rId17" ref="C38"/>
+    <hyperlink r:id="rId18" ref="C39"/>
+    <hyperlink r:id="rId19" ref="C40"/>
+    <hyperlink r:id="rId20" ref="C41"/>
+    <hyperlink r:id="rId21" ref="C42"/>
+    <hyperlink r:id="rId22" ref="C43"/>
+    <hyperlink r:id="rId23" ref="C44"/>
+    <hyperlink r:id="rId24" ref="C45"/>
+    <hyperlink r:id="rId25" ref="C46"/>
+    <hyperlink r:id="rId26" ref="C47"/>
+    <hyperlink r:id="rId27" ref="C48"/>
+    <hyperlink r:id="rId28" ref="C49"/>
+    <hyperlink r:id="rId29" ref="C50"/>
+    <hyperlink r:id="rId30" ref="C51"/>
+    <hyperlink r:id="rId31" ref="C52"/>
+    <hyperlink r:id="rId32" ref="C53"/>
+    <hyperlink r:id="rId33" ref="C54"/>
+    <hyperlink r:id="rId34" ref="C55"/>
+    <hyperlink r:id="rId35" ref="C56"/>
+    <hyperlink r:id="rId36" ref="C57"/>
+    <hyperlink r:id="rId37" ref="C58"/>
+    <hyperlink r:id="rId38" ref="C59"/>
+    <hyperlink r:id="rId39" ref="C60"/>
+    <hyperlink r:id="rId40" ref="C61"/>
+    <hyperlink r:id="rId41" ref="C62"/>
+    <hyperlink r:id="rId42" ref="C63"/>
+    <hyperlink r:id="rId43" ref="C64"/>
+    <hyperlink r:id="rId44" ref="C65"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId45"/>
 </worksheet>
 </file>